--- a/iselUssSyncV2/OutputWSL/20220427_1435_D50L474W90Q25U0.36H88G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220427_1435_D50L474W90Q25U0.36H88G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>88.598221343873533</v>
+        <v>88.599152110894508</v>
       </c>
       <c r="F2" s="0">
-        <v>88.656996047430852</v>
+        <v>88.657926814451798</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>89.197272727272761</v>
+        <v>89.199547935546221</v>
       </c>
       <c r="F3" s="0">
-        <v>91.20229249011858</v>
+        <v>91.204567698392069</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>88.321031746031721</v>
+        <v>88.323782679671524</v>
       </c>
       <c r="F4" s="0">
-        <v>92.676428571428602</v>
+        <v>92.679179505068362</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>87.658492063492062</v>
+        <v>87.661298153696023</v>
       </c>
       <c r="F5" s="0">
-        <v>92.855079365079348</v>
+        <v>92.857885455283323</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>86.766175298804825</v>
+        <v>86.769029651002469</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,10 +220,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>84.374206349206347</v>
+        <v>84.377102068827142</v>
       </c>
       <c r="F7" s="0">
-        <v>93.020793650793692</v>
+        <v>93.023689370414459</v>
       </c>
     </row>
     <row r="8">
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>80.171269841269833</v>
+        <v>80.17420003374329</v>
       </c>
       <c r="F8" s="0">
-        <v>90.122103174603168</v>
+        <v>90.125033367076611</v>
       </c>
     </row>
     <row r="9">
@@ -260,7 +260,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>77.966733067729066</v>
+        <v>77.969675118863847</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -278,7 +278,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>75.124541832669308</v>
+        <v>75.127494639334103</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -296,10 +296,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>72.024741035856565</v>
+        <v>72.027703494920033</v>
       </c>
       <c r="F11" s="0">
-        <v>46.019163346613553</v>
+        <v>46.022125805677035</v>
       </c>
     </row>
     <row r="12">
@@ -316,10 +316,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>70.264960317460336</v>
+        <v>70.267927189048933</v>
       </c>
       <c r="F12" s="0">
-        <v>46.999523809523822</v>
+        <v>47.002490681112434</v>
       </c>
     </row>
     <row r="13">
@@ -336,10 +336,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>68.813690476190487</v>
+        <v>68.816661484521404</v>
       </c>
       <c r="F13" s="0">
-        <v>47.322261904761909</v>
+        <v>47.325232913092833</v>
       </c>
     </row>
     <row r="14">
@@ -356,10 +356,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>67.170199203187252</v>
+        <v>67.173174072477678</v>
       </c>
       <c r="F14" s="0">
-        <v>48.185657370517937</v>
+        <v>48.188632239808349</v>
       </c>
     </row>
     <row r="15">
@@ -376,10 +376,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>65.515634920634909</v>
+        <v>65.518613375102021</v>
       </c>
       <c r="F15" s="0">
-        <v>48.226626984126987</v>
+        <v>48.229605438594085</v>
       </c>
     </row>
     <row r="16">
@@ -396,10 +396,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>62.141190476190459</v>
+        <v>62.144175273662434</v>
       </c>
       <c r="F16" s="0">
-        <v>51.015555555555551</v>
+        <v>51.018540353027547</v>
       </c>
     </row>
     <row r="17">
@@ -416,10 +416,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>59.051031746031732</v>
+        <v>59.054021783377323</v>
       </c>
       <c r="F17" s="0">
-        <v>55.987976190476196</v>
+        <v>55.990966227821787</v>
       </c>
     </row>
     <row r="18">
@@ -436,10 +436,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>56.246785714285714</v>
+        <v>56.249779888373617</v>
       </c>
       <c r="F18" s="0">
-        <v>59.56067460317459</v>
+        <v>59.563668777262514</v>
       </c>
     </row>
     <row r="19">
@@ -456,10 +456,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>53.311388888888871</v>
+        <v>53.314388027067587</v>
       </c>
       <c r="F19" s="0">
-        <v>64.007420634920635</v>
+        <v>64.010419773099315</v>
       </c>
     </row>
     <row r="20">
@@ -476,10 +476,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>60.762142857142855</v>
+        <v>60.765141995321542</v>
       </c>
       <c r="F20" s="0">
-        <v>66.532103174603193</v>
+        <v>66.535102312781845</v>
       </c>
     </row>
     <row r="21">
@@ -496,10 +496,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>67.018844621513949</v>
+        <v>67.021836865122097</v>
       </c>
       <c r="F21" s="0">
-        <v>67.801274900398397</v>
+        <v>67.804267144006573</v>
       </c>
     </row>
     <row r="22">
@@ -516,10 +516,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>70.267091633466137</v>
+        <v>70.27007008793322</v>
       </c>
       <c r="F22" s="0">
-        <v>67.778605577689234</v>
+        <v>67.78158403215636</v>
       </c>
     </row>
     <row r="23">
@@ -536,10 +536,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>71.808167330677279</v>
+        <v>71.811125101432808</v>
       </c>
       <c r="F23" s="0">
-        <v>68.467729083665347</v>
+        <v>68.470686854420876</v>
       </c>
     </row>
     <row r="24">
@@ -556,10 +556,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>63.475976095617519</v>
+        <v>63.478871815238314</v>
       </c>
       <c r="F24" s="0">
-        <v>68.160597609561748</v>
+        <v>68.163493329182558</v>
       </c>
     </row>
     <row r="25">
@@ -576,10 +576,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>66.115378486055789</v>
+        <v>66.118184576259765</v>
       </c>
       <c r="F25" s="0">
-        <v>68.244382470119504</v>
+        <v>68.247188560323494</v>
       </c>
     </row>
     <row r="26">
@@ -596,10 +596,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>69.592988047808745</v>
+        <v>69.595676930313772</v>
       </c>
       <c r="F26" s="0">
-        <v>68.222788844621519</v>
+        <v>68.225477727126545</v>
       </c>
     </row>
     <row r="27">
@@ -616,10 +616,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>64.234761904761896</v>
+        <v>64.237306001285901</v>
       </c>
       <c r="F27" s="0">
-        <v>68.121904761904759</v>
+        <v>68.124448858428764</v>
       </c>
     </row>
     <row r="28">
@@ -636,10 +636,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>66.775277777777774</v>
+        <v>66.777649510038628</v>
       </c>
       <c r="F28" s="0">
-        <v>67.839801587301608</v>
+        <v>67.84217331956242</v>
       </c>
     </row>
     <row r="29">
@@ -656,10 +656,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>67.804741035856551</v>
+        <v>67.806912825572198</v>
       </c>
       <c r="F29" s="0">
-        <v>67.253227091633477</v>
+        <v>67.255398881349066</v>
       </c>
     </row>
     <row r="30">
@@ -676,10 +676,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>65.518650793650806</v>
+        <v>65.520339963429578</v>
       </c>
       <c r="F30" s="0">
-        <v>66.844087301587308</v>
+        <v>66.845776471366094</v>
       </c>
     </row>
   </sheetData>
